--- a/DS_Mystery/Asia stock management/output/Потребность ШМТ 2023-06-21.xlsx
+++ b/DS_Mystery/Asia stock management/output/Потребность ШМТ 2023-06-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N194"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6600,25 +6600,29 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B107" t="n">
-        <v>111315</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
+        <v>111502</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[112793]</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Крышка кругл., d 140мм, h 15мм, п/прозрачн., ПП</t>
+          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6628,49 +6632,45 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Крышки к круглым контейнерам универсальные ПП</t>
+          <t>Ложки пластиковые столовые белые 165 мм</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K107" t="n">
-        <v>0.8823529411764707</v>
+        <v>0.4009216589861751</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1052636421295752</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1618.428497742218</v>
+        <v>0</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ КЕСЕ КАФЕ'], 'Абзалова Ольга Валерьевна': ['ЧЛ Ибраимова Рынок Оптовик бутик 45']}</t>
+          <t>Проверить заказы: {'Семашко Елена Васильевна': ['ЧЛ Валерий Оптовик', 'ЧЛ Нурик Оптовик Сарыагаш', 'ЧЛ Жасулан Казыгурт', 'ЧЛ Актам  Бутик 35 Крытый рынок', 'ИП DAMDI'], 'Абзалова Ольга Валерьевна': ['Чл Болатбек Акбар', 'ЧЛ Рахима Канат 7', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ. Гарсон Г.Иляева 33/11', 'ЧЛ Кафе Rabbit'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Байжан', 'ЧЛ Нурсултан Барыс', 'ЧЛ Оптовик Склад №5 Алаш'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN']}</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B108" t="n">
-        <v>111502</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[112793]</t>
-        </is>
-      </c>
+        <v>111504</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+          <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6695,40 +6695,40 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Ложки пластиковые столовые белые 165 мм</t>
+          <t>Ложки пластиковые чайные и проч. белые</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>0.4009216589861751</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>13408.32744753152</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>36470.65065728573</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Семашко Елена Васильевна': ['ЧЛ Валерий Оптовик', 'ЧЛ Нурик Оптовик Сарыагаш', 'ЧЛ Жасулан Казыгурт', 'ЧЛ Актам  Бутик 35 Крытый рынок', 'ИП DAMDI'], 'Абзалова Ольга Валерьевна': ['Чл Болатбек Акбар', 'ЧЛ Рахима Канат 7', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ. Гарсон Г.Иляева 33/11', 'ЧЛ Кафе Rabbit'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Байжан', 'ЧЛ Нурсултан Барыс', 'ЧЛ Оптовик Склад №5 Алаш'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Досжан Айна базар бутик 13 менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B109" t="n">
-        <v>111504</v>
+        <v>111508</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+          <t>Чашка кофейная 200 мл "Upax-Unity", коричн.-бел., ПП, 50 шт/упак</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -6748,45 +6748,45 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Ложки пластиковые чайные и проч. белые</t>
+          <t>Чашки кофейные 200 мл</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="L109" t="n">
-        <v>13408.32744753152</v>
+        <v>455.9445281314888</v>
       </c>
       <c r="M109" t="n">
-        <v>36470.65065728573</v>
+        <v>4855.809224600356</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Досжан Айна базар бутик 13 менеджера Абзалова Ольга Валерьевна</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B110" t="n">
-        <v>111508</v>
+        <v>111749</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Чашка кофейная 200 мл "Upax-Unity", коричн.-бел., ПП, 50 шт/упак</t>
+          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -6806,27 +6806,27 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Чашки кофейные 200 мл</t>
+          <t>Ложки пластиковые столовые белые 165 мм</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.4914004914004914</v>
       </c>
       <c r="L110" t="n">
-        <v>455.9445281314888</v>
+        <v>553534.2729518291</v>
       </c>
       <c r="M110" t="n">
-        <v>4855.809224600356</v>
+        <v>2125571.608135024</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -6836,25 +6836,25 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B111" t="n">
-        <v>111749</v>
+        <v>112168</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+          <t>Бутылка ПЭТ 300 мл, прозр., горло d 38 мм, крышка в компл., 300 шт/кор  (ИП PET Service)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ИП PET Service</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -6864,27 +6864,27 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Бутылки ПЭТ и крышки</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Ложки пластиковые столовые белые 165 мм</t>
+          <t>Бутылки ПЭТ 0.3-0.45 л широкое горло</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0.4914004914004914</v>
+        <v>0.5160735404795184</v>
       </c>
       <c r="L111" t="n">
-        <v>553534.2729518291</v>
+        <v>238.437253523125</v>
       </c>
       <c r="M111" t="n">
-        <v>2125571.608135024</v>
+        <v>14077.3354480053</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -6894,15 +6894,15 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" t="n">
-        <v>112168</v>
+        <v>112170</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 300 мл, прозр., горло d 38 мм, крышка в компл., 300 шт/кор  (ИП PET Service)</t>
+          <t>Бутылка ПЭТ 500 мл, прозр., горло d 38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 0.3-0.45 л широкое горло</t>
+          <t>Бутылки ПЭТ 0.5-0.9 л широкое горло</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0.5160735404795184</v>
+        <v>0.3103180760279286</v>
       </c>
       <c r="L112" t="n">
-        <v>238.437253523125</v>
+        <v>3931.297286382981</v>
       </c>
       <c r="M112" t="n">
-        <v>14077.3354480053</v>
+        <v>236939.2874503023</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -6952,15 +6952,15 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B113" t="n">
-        <v>112170</v>
+        <v>112171</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 500 мл, прозр., горло d 38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
+          <t>Бутылка ПЭТ 500 мл, квадр., прозр., горло d 38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6990,35 +6990,35 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>0.3103180760279286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L113" t="n">
-        <v>3931.297286382981</v>
+        <v>719.7625791466165</v>
       </c>
       <c r="M113" t="n">
-        <v>236939.2874503023</v>
+        <v>43380.09064516658</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Марат Асел', 'ЧЛ Меруерт Бутылка', 'ЧЛ Ерке Бургер Бокс', 'ЧЛ Мадина Кофе Туркестан']}</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B114" t="n">
-        <v>112171</v>
+        <v>112173</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 500 мл, квадр., прозр., горло d 38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
+          <t>Бутылка ПЭТ 1000 мл, прозр., горло d 38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7043,50 +7043,50 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 0.5-0.9 л широкое горло</t>
+          <t>Бутылки ПЭТ 1.0-1.5 л широкое горло прозрачные</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3610625555205318</v>
       </c>
       <c r="L114" t="n">
-        <v>719.7625791466165</v>
+        <v>19914.49383203675</v>
       </c>
       <c r="M114" t="n">
-        <v>43380.09064516658</v>
+        <v>1224741.37067026</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Марат Асел', 'ЧЛ Меруерт Бутылка', 'ЧЛ Ерке Бургер Бокс', 'ЧЛ Мадина Кофе Туркестан']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B115" t="n">
-        <v>112173</v>
+        <v>112297</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 1000 мл, прозр., горло d 38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
+          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ИП PET Service</t>
+          <t>ЭКСТРАЛАЙН</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7096,45 +7096,45 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ и крышки</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 1.0-1.5 л широкое горло прозрачные</t>
+          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0.3610625555205318</v>
+        <v>0.8466666666666667</v>
       </c>
       <c r="L115" t="n">
-        <v>19914.49383203675</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>1224741.37067026</v>
+        <v>0</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ТОО TVIV'], 'Курбенова Аруна Мухановна': ['ТОО "Shagyn sauda 3"', 'ЧЛ MAXI BURGER', 'ЧЛ ГАП Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин']}</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B116" t="n">
-        <v>112297</v>
+        <v>112492</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке</t>
+          <t>Бумага туалетная "Papia" 3-сл., 16,8 м, 12 рул/упак</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ЭКСТРАЛАЙН</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7154,45 +7154,45 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Бумага туалетная</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
+          <t>Бумага туалетная бытовая 3-слойная из макулатуры</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0.8466666666666667</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>5.48958331216529</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>8088.571635476825</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ТОО TVIV'], 'Курбенова Аруна Мухановна': ['ТОО "Shagyn sauda 3"', 'ЧЛ MAXI BURGER', 'ЧЛ ГАП Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Талгат Айна базар менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B117" t="n">
-        <v>112492</v>
+        <v>112512</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Бумага туалетная "Papia" 3-сл., 16,8 м, 12 рул/упак</t>
+          <t>Бумага для выпечки силикон. в рулоне 360мм х 25м "Samo", коричн.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t>УНИПАПРУ ООО</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Бумага туалетная</t>
+          <t>Пергамент и бумага д</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Бумага туалетная бытовая 3-слойная из макулатуры</t>
+          <t>Бумага для выпечки силиконизированная в рулоне</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7229,38 +7229,38 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>5.48958331216529</v>
+        <v>196.0565468630461</v>
       </c>
       <c r="M117" t="n">
-        <v>8088.571635476825</v>
+        <v>0</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Талгат Айна базар менеджера Абзалова Ольга Валерьевна</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП РАДНИК менеджера Курбенова Аруна Мухановна</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B118" t="n">
-        <v>112512</v>
+        <v>112547</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силикон. в рулоне 360мм х 25м "Samo", коричн.</t>
+          <t>Ведро пищевое 1000 мл, d132хh121 мм с ручкой, без крышки, прозр., ПП, 100 шт/кор</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>УНИПАПРУ ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7270,45 +7270,45 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Пергамент и бумага д</t>
+          <t>Ведра и контейнеры д</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силиконизированная в рулоне</t>
+          <t>Ведра пищевые 1.0-1.9 л</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0.1346412771686863</v>
       </c>
       <c r="L118" t="n">
-        <v>196.0565468630461</v>
+        <v>2579.776869920671</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>149136.900850114</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ИП РАДНИК менеджера Курбенова Аруна Мухановна</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B119" t="n">
-        <v>112547</v>
+        <v>112551</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Ведро пищевое 1000 мл, d132хh121 мм с ручкой, без крышки, прозр., ПП, 100 шт/кор</t>
+          <t>Крышка к контейнеру для пресервов [ведру] d132 мм "Джокей", прозр., ПП, 1300 шт/кор</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Ведра пищевые 1.0-1.9 л</t>
+          <t>Крышки к ведрам и контейнерам для пресервов и меда D 123-149 мм</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7348,7 +7348,7 @@
         <v>2579.776869920671</v>
       </c>
       <c r="M119" t="n">
-        <v>149136.900850114</v>
+        <v>57116.25990004366</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -7358,133 +7358,137 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B120" t="n">
-        <v>112551</v>
+        <v>112698</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для пресервов [ведру] d132 мм "Джокей", прозр., ПП, 1300 шт/кор</t>
+          <t>Бумага для выпечки силикон. в рулоне 380мм х 50м "Nordic EBG", бел.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
+          <t>ЛИГА-ПАК ООО</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Ведра и контейнеры д</t>
+          <t>Пергамент и бумага д</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Крышки к ведрам и контейнерам для пресервов и меда D 123-149 мм</t>
+          <t>Бумага для выпечки силиконизированная в рулоне</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>0.1346412771686863</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L120" t="n">
-        <v>2579.776869920671</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>57116.25990004366</v>
+        <v>0</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк', 'ТОО "Global Coffee Company"'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B121" t="n">
-        <v>112698</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
+        <v>112788</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[150031]</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силикон. в рулоне 380мм х 50м "Nordic EBG", бел.</t>
+          <t>Соусник 30 мл, d51х h32 мм "Aerosnab", неразъем. крышка, прозр., ПП, 80 шт/упак</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ЛИГА-ПАК ООО</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
+          <t>ВЗЛП ООО</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Пергамент и бумага д</t>
+          <t>Соусники и крышки</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силиконизированная в рулоне</t>
+          <t>Соусники ПП с неразъемной крышкой до 50 мл</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.3700972175662085</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>77163.74533098459</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>408196.2128009085</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк', 'ТОО "Global Coffee Company"'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B122" t="n">
-        <v>112788</v>
+        <v>112789</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[150031]</t>
+          <t>[150051]</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Соусник 30 мл, d51х h32 мм "Aerosnab", неразъем. крышка, прозр., ПП, 80 шт/упак</t>
+          <t>Соусник 50 мл, d63х h32 мм "Aerosnab", неразъем. крышка, прозр., ПП, 80 шт/упак</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -7509,7 +7513,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Соусники ПП с неразъемной крышкой до 50 мл</t>
+          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7518,13 +7522,13 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>0.3700972175662085</v>
+        <v>0.2417683628827999</v>
       </c>
       <c r="L122" t="n">
-        <v>77163.74533098459</v>
+        <v>136308.5291421218</v>
       </c>
       <c r="M122" t="n">
-        <v>408196.2128009085</v>
+        <v>965064.3863262222</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -7534,19 +7538,15 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B123" t="n">
-        <v>112789</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[150051]</t>
-        </is>
-      </c>
+        <v>112792</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Соусник 50 мл, d63х h32 мм "Aerosnab", неразъем. крышка, прозр., ПП, 80 шт/упак</t>
+          <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -7559,62 +7559,60 @@
           <t>ВЗЛП ООО</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
+      <c r="G123" t="n">
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Соусники и крышки</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
+          <t>Вилки пластиковые белые до 165 мм</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K123" t="n">
-        <v>0.2417683628827999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L123" t="n">
-        <v>136308.5291421218</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>965064.3863262222</v>
+        <v>0</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ Кафе Rabbit']}</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B124" t="n">
-        <v>112792</v>
+        <v>112852</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Напра)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>НАПРА ООО</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -7622,12 +7620,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Вилки пластиковые белые до 165 мм</t>
+          <t>Стаканы ПП 200 мл прозрачные</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7636,7 +7634,7 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -7646,21 +7644,21 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ Кафе Rabbit']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО  "Яблоко Бьюти Маркет KZ"', 'ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"']}</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B125" t="n">
-        <v>112852</v>
+        <v>112859</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Напра)</t>
+          <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ПТК ЮФ )</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -7670,11 +7668,13 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>НАПРА ООО</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
+          <t>ПТК ЮФ ООО</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -7683,98 +7683,96 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Стаканы ПП 200 мл прозрачные</t>
+          <t>Стаканы ПП от 500 мл прозрачные</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K125" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>4845.997236280452</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>34745.80018413084</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО  "Яблоко Бьюти Маркет KZ"', 'ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B126" t="n">
-        <v>112859</v>
+        <v>113129</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ПТК ЮФ )</t>
+          <t>Упаковка для торта [крышка] d 246 х h 126[d 215 х h 114] мм "Комус", прозр., ПЭТ, 160 шт/кор</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ПТК ЮФ ООО</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
+          <t>ТСК КОМУС ООО</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Упаковка для тортов</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Стаканы ПП от 500 мл прозрачные</t>
+          <t>Упаковка для тортов пластиковая круглая (крышка D 211-250 мм)</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K126" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>4845.997236280452</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>34745.80018413084</v>
+        <v>0</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry']}</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B127" t="n">
-        <v>113129</v>
+        <v>113130</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Упаковка для торта [крышка] d 246 х h 126[d 215 х h 114] мм "Комус", прозр., ПЭТ, 160 шт/кор</t>
+          <t>Упаковка для торта [дно] d245хh16[d215хh12] мм "Комус", корич., ПС, 160 шт/кор</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7797,7 +7795,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Упаковка для тортов пластиковая круглая (крышка D 211-250 мм)</t>
+          <t>Упаковка для тортов пластиковая круглая (дно D 211-250 мм)</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7822,15 +7820,19 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B128" t="n">
-        <v>113130</v>
-      </c>
-      <c r="C128" t="inlineStr"/>
+        <v>113206</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[115417]</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Упаковка для торта [дно] d245хh16[d215хh12] мм "Комус", корич., ПС, 160 шт/кор</t>
+          <t>Стакан-шейкер одноразовый 300 мл "Upax-Unity", прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7840,57 +7842,59 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ТСК КОМУС ООО</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
+          <t>УПАКС-ЮНИТИ ООО</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Упаковка для тортов</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Упаковка для тортов пластиковая круглая (дно D 211-250 мм)</t>
+          <t>Стаканы ПЭТ от 300 мл</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K128" t="n">
-        <v>1</v>
+        <v>0.2514367816091954</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>39693.80755751444</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>800624.0984350663</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B129" t="n">
-        <v>113206</v>
+        <v>113207</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[115417]</t>
+          <t>[115418]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 300 мл "Upax-Unity", прозр., ПЭТ, 50 шт/упак</t>
+          <t>Стакан-шейкер одноразовый 400 мл "Upax-Unity", прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7924,13 +7928,13 @@
         </is>
       </c>
       <c r="K129" t="n">
-        <v>0.2514367816091954</v>
+        <v>0.2478593961243803</v>
       </c>
       <c r="L129" t="n">
-        <v>39693.80755751444</v>
+        <v>108139.4680215118</v>
       </c>
       <c r="M129" t="n">
-        <v>800624.0984350663</v>
+        <v>2527219.367662732</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -7940,19 +7944,19 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B130" t="n">
-        <v>113207</v>
+        <v>113208</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[115418]</t>
+          <t>[115419]</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 400 мл "Upax-Unity", прозр., ПЭТ, 50 шт/упак</t>
+          <t>Стакан-шейкер одноразовый 500 мл "Upax-Unity", прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7986,13 +7990,13 @@
         </is>
       </c>
       <c r="K130" t="n">
-        <v>0.2478593961243803</v>
+        <v>0.1799628942486085</v>
       </c>
       <c r="L130" t="n">
-        <v>108139.4680215118</v>
+        <v>52447.39675531653</v>
       </c>
       <c r="M130" t="n">
-        <v>2527219.367662732</v>
+        <v>1348422.570579188</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -8002,29 +8006,25 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B131" t="n">
-        <v>113208</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[115419]</t>
-        </is>
-      </c>
+        <v>115257</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 500 мл "Upax-Unity", прозр., ПЭТ, 50 шт/упак</t>
+          <t>Стакан бумажный 250 мл 1 сл., d80 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8039,40 +8039,40 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Стаканы ПЭТ от 300 мл</t>
+          <t>Стаканы бумажные 250-290 мл белые, крафт 1-слойные</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K131" t="n">
-        <v>0.1799628942486085</v>
+        <v>0.8994708994708994</v>
       </c>
       <c r="L131" t="n">
-        <v>52447.39675531653</v>
+        <v>8077.923436319659</v>
       </c>
       <c r="M131" t="n">
-        <v>1348422.570579188</v>
+        <v>128519.7618718458</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Казына Бутик 16', 'ЧЛ Ибраимова Рынок Оптовик бутик 45'], 'Курбенова Аруна Мухановна': ['ЧЛ MAXI BURGER', 'ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"'], 'Семашко Елена Васильевна': ['ЧЛ Жареная Рыба Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Яснуай Жибек жолы'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ BAIQONYR COFFEE STATION']}</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B132" t="n">
-        <v>115257</v>
+        <v>115424</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Стакан бумажный 250 мл 1 сл., d80 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Стакан-шейкер одноразовый 400 мл "Сп", прозр., ПЭТ, 50 шт/упак</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8097,40 +8097,40 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 250-290 мл белые, крафт 1-слойные</t>
+          <t>Стаканы ПЭТ от 300 мл</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K132" t="n">
-        <v>0.8994708994708994</v>
+        <v>0.9266666666666666</v>
       </c>
       <c r="L132" t="n">
-        <v>8077.923436319659</v>
+        <v>4713.309642599117</v>
       </c>
       <c r="M132" t="n">
-        <v>128519.7618718458</v>
+        <v>122498.917611151</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Казына Бутик 16', 'ЧЛ Ибраимова Рынок Оптовик бутик 45'], 'Курбенова Аруна Мухановна': ['ЧЛ MAXI BURGER', 'ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"'], 'Семашко Елена Васильевна': ['ЧЛ Жареная Рыба Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Яснуай Жибек жолы'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ BAIQONYR COFFEE STATION']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Изюминка Галина менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B133" t="n">
-        <v>115424</v>
+        <v>120100</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 400 мл "Сп", прозр., ПЭТ, 50 шт/упак</t>
+          <t>Тарелка одноразовая мелкая d 205 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Тарелки</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Стаканы ПЭТ от 300 мл</t>
+          <t>Тарелки мелкие ПС D 200-320 мм белые без секций</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8164,31 +8164,31 @@
         </is>
       </c>
       <c r="K133" t="n">
-        <v>0.9266666666666666</v>
+        <v>0.3993344425956739</v>
       </c>
       <c r="L133" t="n">
-        <v>4713.309642599117</v>
+        <v>36395.07709894765</v>
       </c>
       <c r="M133" t="n">
-        <v>122498.917611151</v>
+        <v>444019.9406071613</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Изюминка Галина менеджера Абзалова Ольга Валерьевна</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B134" t="n">
-        <v>120100</v>
+        <v>123250</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Тарелка одноразовая мелкая d 205 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
+          <t>Тарелка одноразовая мелкая d 167 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Тарелки мелкие ПС D 200-320 мм белые без секций</t>
+          <t>Тарелки мелкие ПС D 150-190 мм белые без секций</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="K134" t="n">
-        <v>0.3993344425956739</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="L134" t="n">
-        <v>36395.07709894765</v>
+        <v>2441.055456997841</v>
       </c>
       <c r="M134" t="n">
-        <v>444019.9406071613</v>
+        <v>21700.98301271081</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -8238,15 +8238,15 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B135" t="n">
-        <v>123250</v>
+        <v>141080</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Тарелка одноразовая мелкая d 167 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
+          <t>Ложка одноразовая 165 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -8266,27 +8266,27 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Тарелки</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Тарелки мелкие ПС D 150-190 мм белые без секций</t>
+          <t>Ложки пластиковые столовые белые 165 мм</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>0.3595505617977528</v>
+        <v>0.2002861230329042</v>
       </c>
       <c r="L135" t="n">
-        <v>2441.055456997841</v>
+        <v>19716.40529365255</v>
       </c>
       <c r="M135" t="n">
-        <v>21700.98301271081</v>
+        <v>112975.0023326291</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -8296,15 +8296,15 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B136" t="n">
-        <v>141080</v>
+        <v>143066</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 165 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
+          <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак (ООО Радиотех. системы)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -8314,12 +8314,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>РТС (Радиотехни</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8329,40 +8329,40 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Ложки пластиковые столовые белые 165 мм</t>
+          <t>Ложки пластиковые чайные и проч. белые</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K136" t="n">
-        <v>0.2002861230329042</v>
+        <v>0.6191950464396285</v>
       </c>
       <c r="L136" t="n">
-        <v>19716.40529365255</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>112975.0023326291</v>
+        <v>0</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Курбенова Аруна Мухановна': ['ЧЛ Стрид-Фуд Авеню Арбат']}</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B137" t="n">
-        <v>143066</v>
+        <v>143080</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак (ООО Радиотех. системы)</t>
+          <t>Ложка одноразовая 125 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>РТС (Радиотехни</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8392,35 +8392,35 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K137" t="n">
-        <v>0.6191950464396285</v>
+        <v>0.3206459054209919</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>110749.2642568493</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>306775.4619914726</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Курбенова Аруна Мухановна': ['ЧЛ Стрид-Фуд Авеню Арбат']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B138" t="n">
-        <v>143080</v>
+        <v>150071</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 125 мм "МИСТЕРИЯ", бел., ПС, 100 шт/упак</t>
+          <t>Соусник 80 мл, d71х h35 мм "Перинт", неразъем. крышка, прозр., ПП, 80 шт/упак</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ПЕРИНТ АО</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -8440,12 +8440,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Соусники и крышки</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Ложки пластиковые чайные и проч. белые</t>
+          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8454,31 +8454,31 @@
         </is>
       </c>
       <c r="K138" t="n">
-        <v>0.3206459054209919</v>
+        <v>0.9</v>
       </c>
       <c r="L138" t="n">
-        <v>110749.2642568493</v>
+        <v>26533.65046814171</v>
       </c>
       <c r="M138" t="n">
-        <v>306775.4619914726</v>
+        <v>267724.5332235498</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ MAXI BURGER менеджера Курбенова Аруна Мухановна</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B139" t="n">
-        <v>150071</v>
+        <v>151175</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Соусник 80 мл, d71х h35 мм "Перинт", неразъем. крышка, прозр., ПП, 80 шт/упак</t>
+          <t>Креманка на ножке 200 мл d95х h70 мм "Aerosnab", без крышки, прозр., ПС, 16 шт/упак</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ПЕРИНТ АО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -8498,12 +8498,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Соусники и крышки</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Соусники ПП с неразъемной крышкой от 50 мл</t>
+          <t>Креманки пластиковые</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8512,31 +8512,31 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>0.9</v>
+        <v>0.382539395037131</v>
       </c>
       <c r="L139" t="n">
-        <v>26533.65046814171</v>
+        <v>2425.009988003093</v>
       </c>
       <c r="M139" t="n">
-        <v>267724.5332235498</v>
+        <v>88609.86496163299</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ MAXI BURGER менеджера Курбенова Аруна Мухановна</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B140" t="n">
-        <v>151175</v>
+        <v>151176</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Креманка на ножке 200 мл d95х h70 мм "Aerosnab", без крышки, прозр., ПС, 16 шт/упак</t>
+          <t>Креманка на ножке 200 мл d95х h70 мм, без крышки, прозр., ПС, 16 шт/упак (ООО Ассорти-Тверь)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>АССОРТИ-ТВЕРЬ О</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -8566,35 +8566,35 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K140" t="n">
-        <v>0.382539395037131</v>
+        <v>0.6469002695417789</v>
       </c>
       <c r="L140" t="n">
-        <v>2425.009988003093</v>
+        <v>752.9391705693864</v>
       </c>
       <c r="M140" t="n">
-        <v>88609.86496163299</v>
+        <v>28664.39422357654</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Гульжан Алаш Бутик', 'ЧЛ кондитерская Марсель Павел'], 'Семашко Елена Васильевна': ['ЧЛ Наурызбай Ата Магазин']}</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B141" t="n">
-        <v>151176</v>
+        <v>151497</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Креманка на ножке 200 мл d95х h70 мм, без крышки, прозр., ПС, 16 шт/упак (ООО Ассорти-Тверь)</t>
+          <t>Контейнер 200 мл 1-секц. 108х82х39 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>АССОРТИ-ТВЕРЬ О</t>
+          <t>АЛЬКОР ООО</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -8619,40 +8619,40 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Креманки пластиковые</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные до 250 мл</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K141" t="n">
-        <v>0.6469002695417789</v>
+        <v>0.7</v>
       </c>
       <c r="L141" t="n">
-        <v>752.9391705693864</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>28664.39422357654</v>
+        <v>0</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Гульжан Алаш Бутик', 'ЧЛ кондитерская Марсель Павел'], 'Семашко Елена Васильевна': ['ЧЛ Наурызбай Ата Магазин']}</t>
+          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Каравай'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B142" t="n">
-        <v>151497</v>
+        <v>153497</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Контейнер 200 мл 1-секц. 108х82х39 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+          <t>Контейнер 350 мл 1-секц. 108х82х69 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -8677,40 +8677,40 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные до 250 мл</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные 350-499 мл</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K142" t="n">
-        <v>0.7</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>2926.801055406038</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>23268.068390478</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Каравай'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО GraMadRetail'], 'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна']}</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B143" t="n">
-        <v>153497</v>
+        <v>154226</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Контейнер 350 мл 1-секц. 108х82х69 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+          <t>Контейнер 750 мл 1-секц. d194х h54,6 мм "Сп", без крышки, черн., ПЭТ, 75 шт/упак</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>АЛЬКОР ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные 350-499 мл</t>
+          <t>Контейнеры универсальные ПЭТ круглые черные</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8744,31 +8744,31 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4830917874396135</v>
       </c>
       <c r="L143" t="n">
-        <v>2926.801055406038</v>
+        <v>233.2787133750545</v>
       </c>
       <c r="M143" t="n">
-        <v>23268.068390478</v>
+        <v>8202.079562266917</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО GraMadRetail'], 'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Calista Ресто бар', 'ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем'], 'Салимбаев Адилбек Абдашевич': ['Чл 4 Казан Кафе']}</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B144" t="n">
-        <v>154226</v>
+        <v>154462</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Контейнер 750 мл 1-секц. d194х h54,6 мм "Сп", без крышки, черн., ПЭТ, 75 шт/упак</t>
+          <t>Контейнер 500 мл 1-секц., овал 156х129х52,5 мм "Сп", неразъем.крышка, прозр., ПЭТ, 300 шт/кор.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -8793,40 +8793,40 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПЭТ круглые черные</t>
+          <t>Контейнеры универсальные ПЭТ овальные и проч. прозрачные с неразъемной крышкой от 500мл</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K144" t="n">
-        <v>0.4830917874396135</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>233.2787133750545</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>8202.079562266917</v>
+        <v>0</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Calista Ресто бар', 'ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем'], 'Салимбаев Адилбек Абдашевич': ['Чл 4 Казан Кафе']}</t>
+          <t>Проверить заказы: {}</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B145" t="n">
-        <v>154462</v>
+        <v>154500</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц., овал 156х129х52,5 мм "Сп", неразъем.крышка, прозр., ПЭТ, 300 шт/кор.</t>
+          <t>Контейнер 500 мл 1-секц. d115х h82,6 мм "Сп", без крышки, прозр., ПП, 50 шт/упак</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПЭТ овальные и проч. прозрачные с неразъемной крышкой от 500мл</t>
+          <t>Контейнеры универсальные ПП круглые прозрачные</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8860,7 +8860,7 @@
         </is>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -8870,21 +8870,21 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Проверить заказы: {}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Талгат 1000 мелочей']}</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B146" t="n">
-        <v>154500</v>
+        <v>155497</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. d115х h82,6 мм "Сп", без крышки, прозр., ПП, 50 шт/упак</t>
+          <t>Контейнер 500 мл 1-секц. 108х82х106 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>АЛЬКОР ООО</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8909,40 +8909,40 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП круглые прозрачные</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные 500-749 мл</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K146" t="n">
-        <v>1</v>
+        <v>0.8370302167908261</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>6608.320049276884</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>64761.53648291346</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Талгат 1000 мелочей']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B147" t="n">
-        <v>155497</v>
+        <v>155834</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 108х82х106 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+          <t>Контейнер 1000 мл 1-секц. 179х132х64 мм серия 179, без крышки, прозр., ПП, 50 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8967,40 +8967,40 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные 500-749 мл</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные 1000-1450 мл</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K147" t="n">
-        <v>0.8370302167908261</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L147" t="n">
-        <v>6608.320049276884</v>
+        <v>600.1835538365822</v>
       </c>
       <c r="M147" t="n">
-        <v>64761.53648291346</v>
+        <v>13936.26212008544</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
+          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Умид Посуда подвал', 'ЧЛ Торабек Бутик Абай', 'ЧЛ Дильфуза Посуда', 'ЧЛ Молочный бутик Коктем'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин', 'ЧЛ Яснуай Жибек жолы']}</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B148" t="n">
-        <v>155834</v>
+        <v>155844</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Контейнер 1000 мл 1-секц. 179х132х64 мм серия 179, без крышки, прозр., ПП, 50 шт/упак (ООО Алькор)</t>
+          <t>Контейнер 1500 мл 1-секц. 179х132х89 мм серия 179, без крышки, прозр., ПП, 50 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -9025,40 +9025,40 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные 1000-1450 мл</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные от 1500 мл</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K148" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.575</v>
       </c>
       <c r="L148" t="n">
-        <v>600.1835538365822</v>
+        <v>2225.308044169871</v>
       </c>
       <c r="M148" t="n">
-        <v>13936.26212008544</v>
+        <v>62753.68684559037</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Умид Посуда подвал', 'ЧЛ Торабек Бутик Абай', 'ЧЛ Дильфуза Посуда', 'ЧЛ Молочный бутик Коктем'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин', 'ЧЛ Яснуай Жибек жолы']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B149" t="n">
-        <v>155844</v>
+        <v>155846</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Контейнер 1500 мл 1-секц. 179х132х89 мм серия 179, без крышки, прозр., ПП, 50 шт/упак (ООО Алькор)</t>
+          <t>Контейнер 1500 мл 1-секц. 179х132х93 мм "Сп" серия 179, без крышки, прозр., ПП, 50 шт/упак</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>АЛЬКОР ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9088,17 +9088,17 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>0.575</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="L149" t="n">
-        <v>2225.308044169871</v>
+        <v>970.6305662751611</v>
       </c>
       <c r="M149" t="n">
-        <v>62753.68684559037</v>
+        <v>30128.372777181</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -9108,15 +9108,15 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B150" t="n">
-        <v>155846</v>
+        <v>159497</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Контейнер 1500 мл 1-секц. 179х132х93 мм "Сп" серия 179, без крышки, прозр., ПП, 50 шт/упак</t>
+          <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>АЛЬКОР ООО</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9141,22 +9141,22 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные от 1500 мл</t>
+          <t>Крышки к прямоугольным контейнерам универсальные ПП длиной до 150 мм</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K150" t="n">
-        <v>0.4310344827586207</v>
+        <v>0.4623674417604164</v>
       </c>
       <c r="L150" t="n">
-        <v>970.6305662751611</v>
+        <v>19065.7482936023</v>
       </c>
       <c r="M150" t="n">
-        <v>30128.372777181</v>
+        <v>79885.48535019366</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -9166,15 +9166,15 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B151" t="n">
-        <v>159497</v>
+        <v>159500</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+          <t>Крышка к контейнеру d115хh8 мм "Сп", прозр., ПП, 50 шт/упак</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>АЛЬКОР ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Крышки к прямоугольным контейнерам универсальные ПП длиной до 150 мм</t>
+          <t>Крышки к круглым контейнерам универсальные ПП</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9208,13 +9208,13 @@
         </is>
       </c>
       <c r="K151" t="n">
-        <v>0.4623674417604164</v>
+        <v>0.3267546725918181</v>
       </c>
       <c r="L151" t="n">
-        <v>19065.7482936023</v>
+        <v>13.315700023717</v>
       </c>
       <c r="M151" t="n">
-        <v>79885.48535019366</v>
+        <v>95.87304017076239</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -9224,15 +9224,15 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B152" t="n">
-        <v>159500</v>
+        <v>187011</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру d115хh8 мм "Сп", прозр., ПП, 50 шт/упак</t>
+          <t>Набор одноразовой посуды для пикника [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+6 салф.]</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -9252,45 +9252,45 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Наборы одноразовой п</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Крышки к круглым контейнерам универсальные ПП</t>
+          <t>Наборы одноразовой посуды на 6 персон</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>0.3267546725918181</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L152" t="n">
-        <v>13.315700023717</v>
+        <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>95.87304017076239</v>
+        <v>0</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК'], 'Салимбаев Адилбек Абдашевич': ['ИП  Нурматов Нодир Собирович']}</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B153" t="n">
-        <v>187011</v>
+        <v>187050</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды для пикника [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+6 салф.]</t>
+          <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -9320,35 +9320,35 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>495.6033466085173</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>107456.7176116587</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК'], 'Салимбаев Адилбек Абдашевич': ['ИП  Нурматов Нодир Собирович']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B154" t="n">
-        <v>187050</v>
+        <v>187060</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
+          <t>Набор одноразовой посуды "Турист" [6 стак. 200 мл, ПП+6 стак.100 мл, ПП+ 6 тар. d165 мм, ПС+6 вил.+6</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -9378,35 +9378,35 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L154" t="n">
-        <v>495.6033466085173</v>
+        <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>107456.7176116587</v>
+        <v>0</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ Оптовик Суинше  57 бутик'], 'Курбенова Аруна Мухановна': ['ЧЛ Барыс Оптовик Аруназ']}</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B155" t="n">
-        <v>187060</v>
+        <v>187300</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды "Турист" [6 стак. 200 мл, ПП+6 стак.100 мл, ПП+ 6 тар. d165 мм, ПС+6 вил.+6</t>
+          <t>Набор одноразовой посуды "Праздник №1" [6 рюм.100 мл, ПС+6 тар. d205 мм, ПС+6 вил.+ 6 салф.]</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -9436,35 +9436,35 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8567335243553008</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>16.22577616286725</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>4519.365434643414</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ Оптовик Суинше  57 бутик'], 'Курбенова Аруна Мухановна': ['ЧЛ Барыс Оптовик Аруназ']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ АЯН 1000 мелочей менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B156" t="n">
-        <v>187300</v>
+        <v>187320</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды "Праздник №1" [6 рюм.100 мл, ПС+6 тар. d205 мм, ПС+6 вил.+ 6 салф.]</t>
+          <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -9489,40 +9489,40 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Наборы одноразовой посуды на 6 персон</t>
+          <t>Наборы одноразовой посуды на 12 персон</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>0.8567335243553008</v>
+        <v>0.3975678203928906</v>
       </c>
       <c r="L156" t="n">
-        <v>16.22577616286725</v>
+        <v>425.8755414096121</v>
       </c>
       <c r="M156" t="n">
-        <v>4519.365434643414</v>
+        <v>126944.9813833772</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ АЯН 1000 мелочей менеджера Абзалова Ольга Валерьевна</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B157" t="n">
-        <v>187320</v>
+        <v>187430</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
+          <t>Набор одноразовой посуды "Шашлычок" [6 стак. 200 мл, ПП+ 6 тар. d167 мм, ПС+6 вил.+6 салф.]</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -9547,40 +9547,40 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Наборы одноразовой посуды на 12 персон</t>
+          <t>Наборы одноразовой посуды на 6 персон</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>0.3975678203928906</v>
+        <v>0.5228628230616302</v>
       </c>
       <c r="L157" t="n">
-        <v>425.8755414096121</v>
+        <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>126944.9813833772</v>
+        <v>0</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Нуржанбек'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей'], 'Салимбаев Адилбек Абдашевич': ['ИП  Нурматов Нодир Собирович']}</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B158" t="n">
-        <v>187430</v>
+        <v>187460</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды "Шашлычок" [6 стак. 200 мл, ПП+ 6 тар. d167 мм, ПС+6 вил.+6 салф.]</t>
+          <t>Набор одноразовой посуды [10 стак. 200 мл, ПП+10 тар. d165 мм, ПС+10 вил.+1 скат.]</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ПРОМА ООО</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Наборы одноразовой посуды на 6 персон</t>
+          <t>Наборы одноразовой посуды на 10 персон</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -9614,7 +9614,7 @@
         </is>
       </c>
       <c r="K158" t="n">
-        <v>0.5228628230616302</v>
+        <v>0.75</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -9624,21 +9624,21 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Нуржанбек'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей'], 'Салимбаев Адилбек Абдашевич': ['ИП  Нурматов Нодир Собирович']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс']}</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B159" t="n">
-        <v>187460</v>
+        <v>191220</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Набор одноразовой посуды [10 стак. 200 мл, ПП+10 тар. d165 мм, ПС+10 вил.+1 скат.]</t>
+          <t>Тарелка одноразовая мелкая d 172 мм "GREEN MYSTERY", бел., сах. тростник, 50 шт/упак</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -9648,22 +9648,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ПРОМА ООО</t>
+          <t>Hangzhou Tomato</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Наборы одноразовой п</t>
+          <t>Тарелки</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Наборы одноразовой посуды на 10 персон</t>
+          <t>Тарелки мелкие из сахарного тростника круглые</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="K159" t="n">
-        <v>0.75</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -9682,21 +9682,21 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс']}</t>
+          <t>Проверить заказы: {'Семашко Елена Васильевна': ['ИП Абдибаева А', 'ЧЛ Жасулан Казыгурт'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин']}</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B160" t="n">
-        <v>191220</v>
+        <v>191301</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Тарелка одноразовая мелкая d 172 мм "GREEN MYSTERY", бел., сах. тростник, 50 шт/упак</t>
+          <t>Ложка одноразовая 168 мм "GREEN MYSTERY", биокомпозит, 50 шт/упак</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -9716,45 +9716,45 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Тарелки</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Тарелки мелкие из сахарного тростника круглые</t>
+          <t>Ложки из древесного волокна</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>13.68933997803163</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>211.3634092608083</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Семашко Елена Васильевна': ['ИП Абдибаева А', 'ЧЛ Жасулан Казыгурт'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе']}</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B161" t="n">
-        <v>191301</v>
+        <v>191610</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 168 мм "GREEN MYSTERY", биокомпозит, 50 шт/упак</t>
+          <t>Коробка для бургера [бургербокс] 154х152х88 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>Hangzhou Tomato</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -9774,12 +9774,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Ложки из древесного волокна</t>
+          <t>Бургербоксы из сахарного тростника</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9788,31 +9788,31 @@
         </is>
       </c>
       <c r="K161" t="n">
-        <v>0.8389261744966443</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L161" t="n">
-        <v>13.68933997803163</v>
+        <v>2609.962802303969</v>
       </c>
       <c r="M161" t="n">
-        <v>211.3634092608083</v>
+        <v>147175.8024219208</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО TVIV', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Гульжан Алаш Бутик'], 'Семашко Елена Васильевна': ['ЧЛ Жети Асыл Все для кондитера', 'ЧЛ Sisters Все для кондитера'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек']}</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B162" t="n">
-        <v>191610</v>
+        <v>191620</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Коробка для бургера [бургербокс] 154х152х88 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
+          <t>Ланч-бокс 1-секц. 230х155х87 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Бургербоксы из сахарного тростника</t>
+          <t>Ланч-боксы из сахарного тростника</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -9846,31 +9846,31 @@
         </is>
       </c>
       <c r="K162" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L162" t="n">
-        <v>2609.962802303969</v>
+        <v>55.39362458721109</v>
       </c>
       <c r="M162" t="n">
-        <v>147175.8024219208</v>
+        <v>4603.210203197242</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО TVIV', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Гульжан Алаш Бутик'], 'Семашко Елена Васильевна': ['ЧЛ Жети Асыл Все для кондитера', 'ЧЛ Sisters Все для кондитера'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО TVIV']}</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B163" t="n">
-        <v>191620</v>
+        <v>191623</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 230х155х87 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
+          <t>Ланч-бокс 2-секц. 249х163х64 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -9900,35 +9900,35 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K163" t="n">
         <v>1</v>
       </c>
       <c r="L163" t="n">
-        <v>55.39362458721109</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>4603.210203197242</v>
+        <v>0</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО TVIV']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Бектурсынова Салтанат Талгаткызы']}</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B164" t="n">
-        <v>191623</v>
+        <v>218116</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ланч-бокс 2-секц. 249х163х64 мм "GREEN MYSTERY", бел., сах.тростник, 50 шт/упак</t>
+          <t>Фольга алюминиевая 29см х8м х9мкм "У нас дома" Эконом</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -9938,55 +9938,55 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
+          <t xml:space="preserve">МЕТАЛЛПЕЙПЕР-М </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Фольга</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Ланч-боксы из сахарного тростника</t>
+          <t>Фольга 29 (30) см 9 мкм</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0.7337662337662337</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>145.4759135957739</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>44648.01264167898</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Бектурсынова Салтанат Талгаткызы']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B165" t="n">
-        <v>218116</v>
+        <v>218501</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Фольга алюминиевая 29см х8м х9мкм "У нас дома" Эконом</t>
+          <t>Фольга алюминиевая 44см х80м х10мкм Стандартная МП-М</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -10011,40 +10011,40 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Фольга 29 (30) см 9 мкм</t>
+          <t>Фольга 44 см 10-14 мкм</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K165" t="n">
-        <v>0.7337662337662337</v>
+        <v>0.625</v>
       </c>
       <c r="L165" t="n">
-        <v>145.4759135957739</v>
+        <v>4.270918949678917</v>
       </c>
       <c r="M165" t="n">
-        <v>44648.01264167898</v>
+        <v>12673.22592695074</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Мадлен Кен Баба', 'Чл. Омархан Ата кафе Самарканд'], 'Иордакий Владислав Викторович': ['ЧЛ Хоз товары Бутик']}</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B166" t="n">
-        <v>218501</v>
+        <v>218531</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Фольга алюминиевая 44см х80м х10мкм Стандартная МП-М</t>
+          <t>Фольга алюминиевая 44см х100м х10мкм Стандартная МП-М</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -10078,31 +10078,31 @@
         </is>
       </c>
       <c r="K166" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L166" t="n">
-        <v>4.270918949678917</v>
+        <v>2.196234337705971</v>
       </c>
       <c r="M166" t="n">
-        <v>12673.22592695074</v>
+        <v>7944.130996976531</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Мадлен Кен Баба', 'Чл. Омархан Ата кафе Самарканд'], 'Иордакий Владислав Викторович': ['ЧЛ Хоз товары Бутик']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ЧЛ Махмуд'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ ALI DEKOR']}</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B167" t="n">
-        <v>218531</v>
+        <v>223226</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Фольга алюминиевая 44см х100м х10мкм Стандартная МП-М</t>
+          <t>Пакет фасовочный 240х370 мм 7 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">МЕТАЛЛПЕЙПЕР-М </t>
+          <t>ВАШ ПАКЕТ ООО</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -10122,45 +10122,45 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Фольга</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Фольга 44 см 10-14 мкм</t>
+          <t>Пакеты фасовочные ПНД в рулонах до 8 мкм</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K167" t="n">
-        <v>0.6</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L167" t="n">
-        <v>2.196234337705971</v>
+        <v>17.40423142499702</v>
       </c>
       <c r="M167" t="n">
-        <v>7944.130996976531</v>
+        <v>14340.04244031205</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ЧЛ Махмуд'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ ALI DEKOR']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Инфрастрой ЛТД" менеджера Курбенова Аруна Мухановна</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B168" t="n">
-        <v>223226</v>
+        <v>223592</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Пакет фасовочный 240х370 мм 7 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+          <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -10185,40 +10185,40 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные ПНД в рулонах до 8 мкм</t>
+          <t>Пакеты фасовочные ПНД в рулонах 8-10 мкм</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K168" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.6807387862796834</v>
       </c>
       <c r="L168" t="n">
-        <v>17.40423142499702</v>
+        <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>14340.04244031205</v>
+        <v>0</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Инфрастрой ЛТД" менеджера Курбенова Аруна Мухановна</t>
+          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна', 'ИП  Нурматов Нодир Собирович'], 'Курбенова Аруна Мухановна': ['ТОО "Инфрастрой ЛТД"'], 'Абзалова Ольга Валерьевна': ['ЧЛ Мадлен Кен Баба'], 'Иордакий Владислав Викторович': ['ЧЛ Хоз товары Бутик']}</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B169" t="n">
-        <v>223592</v>
+        <v>253042</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+          <t>Контейнер для суши 1-секц. 235х162х25 мм "Сп", без крышки, черн., ПЭТ, 220 шт/кор</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ВАШ ПАКЕТ ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -10238,45 +10238,45 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные ПНД в рулонах 8-10 мкм</t>
+          <t>Контейнеры для суши универсальные 1-секционные длиной от 200 мм</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K169" t="n">
-        <v>0.6807387862796834</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>31.96205149024736</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>1057.943904327188</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна', 'ИП  Нурматов Нодир Собирович'], 'Курбенова Аруна Мухановна': ['ТОО "Инфрастрой ЛТД"'], 'Абзалова Ольга Валерьевна': ['ЧЛ Мадлен Кен Баба'], 'Иордакий Владислав Викторович': ['ЧЛ Хоз товары Бутик']}</t>
+          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Дубай Ресторан'], 'Курбенова Аруна Мухановна': ['ЧЛ Ерке Бургер Бокс']}</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B170" t="n">
-        <v>253042</v>
+        <v>253043</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 235х162х25 мм "Сп", без крышки, черн., ПЭТ, 220 шт/кор</t>
+          <t>Крышка к контейнеру для суши 235х162х25 мм "Сп", прозр., ПЭТ, 220 шт/кор</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Контейнеры для суши универсальные 1-секционные длиной от 200 мм</t>
+          <t>Крышки для универсальных контейнеров для суши длиной от 200 мм</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10316,7 +10316,7 @@
         <v>31.96205149024736</v>
       </c>
       <c r="M170" t="n">
-        <v>1057.943904327188</v>
+        <v>1187.070592347787</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -10326,15 +10326,15 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B171" t="n">
-        <v>253043</v>
+        <v>254106</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 235х162х25 мм "Сп", прозр., ПЭТ, 220 шт/кор</t>
+          <t>Ланч-бокс 1-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t xml:space="preserve">ХОЛДИНГ ПРОТЭК </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -10354,45 +10354,45 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Лотки и ланч-боксы</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Крышки для универсальных контейнеров для суши длиной от 200 мм</t>
+          <t>Ланч-боксы ВПС 1-секционные белые</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K171" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L171" t="n">
-        <v>31.96205149024736</v>
+        <v>1218.867772232421</v>
       </c>
       <c r="M171" t="n">
-        <v>1187.070592347787</v>
+        <v>24413.92147781539</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Дубай Ресторан'], 'Курбенова Аруна Мухановна': ['ЧЛ Ерке Бургер Бокс']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B172" t="n">
-        <v>254106</v>
+        <v>254108</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+          <t>Ланч-бокс 1-секц. 250х207х61 мм, черн., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные белые</t>
+          <t>Ланч-боксы ВПС 1-секционные черные</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10426,13 +10426,13 @@
         </is>
       </c>
       <c r="K172" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L172" t="n">
-        <v>1218.867772232421</v>
+        <v>4152.18037526292</v>
       </c>
       <c r="M172" t="n">
-        <v>24413.92147781539</v>
+        <v>83168.1729165163</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -10442,15 +10442,15 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B173" t="n">
-        <v>254108</v>
+        <v>254208</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х207х61 мм, черн., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+          <t>Ланч-бокс 2-секц. 250х207х61 мм, черн., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -10475,40 +10475,40 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные черные</t>
+          <t>Ланч-боксы ВПС 2-секционные черные</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K173" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L173" t="n">
-        <v>4152.18037526292</v>
+        <v>532.7308457962159</v>
       </c>
       <c r="M173" t="n">
-        <v>83168.1729165163</v>
+        <v>11123.42006022499</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Шашлык', 'ЧЛ Три Самурая'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Гарсон Г.Иляева 33/11']}</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B174" t="n">
-        <v>254208</v>
+        <v>254501</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ланч-бокс 2-секц. 250х207х61 мм, черн., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+          <t>Ланч-бокс 1-секц. 250х210х65 мм "Алпина", бел., ВПС 100 шт/кор</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -10518,12 +10518,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХОЛДИНГ ПРОТЭК </t>
+          <t>АЛПИНА ООО</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -10533,40 +10533,40 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 2-секционные черные</t>
+          <t>Ланч-боксы ВПС 1-секционные белые</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="K174" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.2633772295382564</v>
       </c>
       <c r="L174" t="n">
-        <v>532.7308457962159</v>
+        <v>14964.75437589704</v>
       </c>
       <c r="M174" t="n">
-        <v>11123.42006022499</v>
+        <v>324136.5797819298</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Шашлык', 'ЧЛ Три Самурая'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Гарсон Г.Иляева 33/11']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B175" t="n">
-        <v>254501</v>
+        <v>254502</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х210х65 мм "Алпина", бел., ВПС 100 шт/кор</t>
+          <t>Ланч-бокс 2-секц. 250х210х65 мм "Алпина", бел., ВПС 100 шт/кор</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -10591,22 +10591,22 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные белые</t>
+          <t>Ланч-боксы ВПС 2-секционные белые</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K175" t="n">
-        <v>0.2633772295382564</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L175" t="n">
-        <v>14964.75437589704</v>
+        <v>627.5866951648553</v>
       </c>
       <c r="M175" t="n">
-        <v>324136.5797819298</v>
+        <v>13593.52781727077</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -10616,15 +10616,15 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B176" t="n">
-        <v>254502</v>
+        <v>254601</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ланч-бокс 2-секц. 250х210х65 мм "Алпина", бел., ВПС 100 шт/кор</t>
+          <t>Ланч-бокс 1-секц. 250х210х65 мм "Алпина", черн., ВПС 100 шт/кор</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 2-секционные белые</t>
+          <t>Ланч-боксы ВПС 1-секционные черные</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10658,13 +10658,13 @@
         </is>
       </c>
       <c r="K176" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="L176" t="n">
-        <v>627.5866951648553</v>
+        <v>5153.712875222555</v>
       </c>
       <c r="M176" t="n">
-        <v>13593.52781727077</v>
+        <v>111629.4208773205</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -10674,15 +10674,15 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B177" t="n">
-        <v>254601</v>
+        <v>255043</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х210х65 мм "Алпина", черн., ВПС 100 шт/кор</t>
+          <t>Упаковка [коробка] для сэндвичей 130х130х40 мм "OSQ" ECO Sandwich 40 с окном, неразъем.крышка, крафт</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>АЛПИНА ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -10702,45 +10702,45 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Контейнеры для сэндв</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Ланч-боксы ВПС 1-секционные черные</t>
+          <t>Контейнеры картонные для сэндвичей</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K177" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.5565410199556541</v>
       </c>
       <c r="L177" t="n">
-        <v>5153.712875222555</v>
+        <v>166.7806567324938</v>
       </c>
       <c r="M177" t="n">
-        <v>111629.4208773205</v>
+        <v>5532.11438381682</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе'], 'Абзалова Ольга Валерьевна': ['ИП  Шамсудинов Ш.Т']}</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B178" t="n">
-        <v>255043</v>
+        <v>255046</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Упаковка [коробка] для сэндвичей 130х130х40 мм "OSQ" ECO Sandwich 40 с окном, неразъем.крышка, крафт</t>
+          <t>Упаковка [коробка] для сэндвичей 130х130х70 мм "OSQ" ECO Sandwich 70 с окном, неразъем.крышка, крафт</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -10774,13 +10774,13 @@
         </is>
       </c>
       <c r="K178" t="n">
-        <v>0.5565410199556541</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="L178" t="n">
-        <v>166.7806567324938</v>
+        <v>227.5043401612236</v>
       </c>
       <c r="M178" t="n">
-        <v>5532.11438381682</v>
+        <v>11843.8759487933</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -10790,15 +10790,15 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B179" t="n">
-        <v>255046</v>
+        <v>261376</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Упаковка [коробка] для сэндвичей 130х130х70 мм "OSQ" ECO Sandwich 70 с окном, неразъем.крышка, крафт</t>
+          <t>Упаковка для кондит. изделий 800 мл, 1-секц. 130х130х80[110х110х70] мм "Upax-Unity", неразъем.крышка</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -10818,12 +10818,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Контейнеры для сэндв</t>
+          <t>Упаковка для кондите</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Контейнеры картонные для сэндвичей</t>
+          <t>Упаковка для кондитерских изделий пластиковая с неразъемной крышкой прямоугольная длиной до 135 мм</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10832,31 +10832,31 @@
         </is>
       </c>
       <c r="K179" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.4991680532445923</v>
       </c>
       <c r="L179" t="n">
-        <v>227.5043401612236</v>
+        <v>177.5149972453572</v>
       </c>
       <c r="M179" t="n">
-        <v>11843.8759487933</v>
+        <v>3252.074749534944</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе'], 'Абзалова Ольга Валерьевна': ['ИП  Шамсудинов Ш.Т']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Винникова Ольга', 'ЧЛ Дмитрий Кафе'], 'Абзалова Ольга Валерьевна': ['ЧЛ Восточный пир']}</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B180" t="n">
-        <v>261376</v>
+        <v>270126</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Упаковка для кондит. изделий 800 мл, 1-секц. 130х130х80[110х110х70] мм "Upax-Unity", неразъем.крышка</t>
+          <t>Бумага для выпечки силикон. в рулоне 380мм х 25м "Nordic EBG", коричн.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ЛИГА-ПАК ООО</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -10876,45 +10876,45 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Упаковка для кондите</t>
+          <t>Пергамент и бумага д</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Упаковка для кондитерских изделий пластиковая с неразъемной крышкой прямоугольная длиной до 135 мм</t>
+          <t>Бумага для выпечки силиконизированная в рулоне</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K180" t="n">
-        <v>0.4991680532445923</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L180" t="n">
-        <v>177.5149972453572</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>3252.074749534944</v>
+        <v>0</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Винникова Ольга', 'ЧЛ Дмитрий Кафе'], 'Абзалова Ольга Валерьевна': ['ЧЛ Восточный пир']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Айша', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Нуржанбек', 'ЧЛ Айнура Баклажки', 'ЧЛ Зайра'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Сказка'], 'Суфибекова Канзай Учкеновна': ['ЧЛ Сотрудники Шымкент']}</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B181" t="n">
-        <v>270126</v>
+        <v>270127</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силикон. в рулоне 380мм х 25м "Nordic EBG", коричн.</t>
+          <t>Бумага для выпечки силикон. в рулоне 380мм х 50м "Nordic EBG", коричн.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -10948,7 +10948,7 @@
         </is>
       </c>
       <c r="K181" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="L181" t="n">
         <v>0</v>
@@ -10958,21 +10958,21 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Айша', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Нуржанбек', 'ЧЛ Айнура Баклажки', 'ЧЛ Зайра'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Сказка'], 'Суфибекова Канзай Учкеновна': ['ЧЛ Сотрудники Шымкент']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Айша', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Азимхан Троллейбусный парк', 'ЧЛ Валентина Николаевна', 'ИП "ТУРСУМЕТОВА Г.А"'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Моцарелла Тыныбаева']}</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B182" t="n">
-        <v>270127</v>
+        <v>279508</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силикон. в рулоне 380мм х 50м "Nordic EBG", коричн.</t>
+          <t>Чековая лента 57мм х 25м "Честный чек", d12 мм, бел., термобум.</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ЛИГА-ПАК ООО</t>
+          <t>ПЭЙПЕР СКАЙ ООО</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -10992,45 +10992,45 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Пергамент и бумага д</t>
+          <t>Чековые и весовые ле</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силиконизированная в рулоне</t>
+          <t>Чековые ленты 57 мм</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K182" t="n">
-        <v>0.2745098039215687</v>
+        <v>0.7094972067039106</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>77.34353050183523</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>10691.9696565737</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Айша', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Азимхан Троллейбусный парк', 'ЧЛ Валентина Николаевна', 'ИП "ТУРСУМЕТОВА Г.А"'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Моцарелла Тыныбаева']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Ибраимова Рынок Оптовик бутик 45'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Teftelka', 'ЧЛ КЕСЕ КАФЕ']}</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B183" t="n">
-        <v>279508</v>
+        <v>291036</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Чековая лента 57мм х 25м "Честный чек", d12 мм, бел., термобум.</t>
+          <t>Бутылка ПЭТ 300 мл, прозр., горло d 38 мм, крышка в компл., 100 шт/кор. (ООО Внешторгпластик)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -11040,55 +11040,55 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ПЭЙПЕР СКАЙ ООО</t>
+          <t>ВНЕШТОРГПЛАСТИК</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Чековые и весовые ле</t>
+          <t>Бутылки ПЭТ и крышки</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Чековые ленты 57 мм</t>
+          <t>Бутылки ПЭТ 0.3-0.45 л широкое горло</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K183" t="n">
-        <v>0.7094972067039106</v>
+        <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>77.34353050183523</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>10691.9696565737</v>
+        <v>0</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Ибраимова Рынок Оптовик бутик 45'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Teftelka', 'ЧЛ КЕСЕ КАФЕ']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13']}</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B184" t="n">
-        <v>291036</v>
+        <v>291081</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 300 мл, прозр., горло d 38 мм, крышка в компл., 100 шт/кор. (ООО Внешторгпластик)</t>
+          <t>Бутылка ПЭТ 300 мл, прозр., горло d 38 мм, крышка в компл., 150 шт/кор. (ООО Мастерпэт)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -11098,12 +11098,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ВНЕШТОРГПЛАСТИК</t>
+          <t>МАСТЕРПЭТ ООО</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -11118,35 +11118,35 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>2915.21215775649</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>139959.3356938891</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry'], 'Семашко Елена Васильевна': ['ЧЛ Душевная кухня Мухтар']}</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B185" t="n">
-        <v>291081</v>
+        <v>291087</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 300 мл, прозр., горло d 38 мм, крышка в компл., 150 шт/кор. (ООО Мастерпэт)</t>
+          <t>Бутылка ПЭТ 500 мл, прозр., горло d 38 мм, крышка в компл., 120 шт/кор (ООО Мастерпэт)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -11171,40 +11171,40 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 0.3-0.45 л широкое горло</t>
+          <t>Бутылки ПЭТ 0.5-0.9 л широкое горло</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K185" t="n">
-        <v>0.967741935483871</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L185" t="n">
-        <v>2915.21215775649</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>139959.3356938891</v>
+        <v>0</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry'], 'Семашко Елена Васильевна': ['ЧЛ Душевная кухня Мухтар']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан']}</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B186" t="n">
-        <v>291087</v>
+        <v>296233</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Бутылка ПЭТ 500 мл, прозр., горло d 38 мм, крышка в компл., 120 шт/кор (ООО Мастерпэт)</t>
+          <t>Контейнер для пресервов 500 мл, d112хh75 мм "Aerosnab", форма "Банка", крышка в компл., прозр., ПП,</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>МАСТЕРПЭТ ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -11224,45 +11224,45 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ и крышки</t>
+          <t>Ведра и контейнеры д</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Бутылки ПЭТ 0.5-0.9 л широкое горло</t>
+          <t>Контейнеры для пресервов и меда 400-500 мл круглые</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Опасные</t>
         </is>
       </c>
       <c r="K186" t="n">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>120.2266219202071</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
+        <v>4397.889829841174</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Кафе Rabbit']}</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B187" t="n">
-        <v>296233</v>
+        <v>307971</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Контейнер для пресервов 500 мл, d112хh75 мм "Aerosnab", форма "Банка", крышка в компл., прозр., ПП,</t>
+          <t>Салфетки ажурные d 220 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ГУСЛИЦА ООО</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -11282,45 +11282,45 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Ведра и контейнеры д</t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Контейнеры для пресервов и меда 400-500 мл круглые</t>
+          <t>Салфетки сервировочные ажурные D от 20 см</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Опасные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="K187" t="n">
-        <v>1</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L187" t="n">
-        <v>120.2266219202071</v>
+        <v>32.99738160808878</v>
       </c>
       <c r="M187" t="n">
-        <v>4397.889829841174</v>
+        <v>36825.73782225924</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Кафе Rabbit']}</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B188" t="n">
-        <v>307971</v>
+        <v>307973</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d 220 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
+          <t>Салфетки ажурные d 260 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -11350,35 +11350,35 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K188" t="n">
-        <v>0.3950617283950617</v>
+        <v>1</v>
       </c>
       <c r="L188" t="n">
-        <v>32.99738160808878</v>
+        <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>36825.73782225924</v>
+        <v>0</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Марго Диля']}</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B189" t="n">
-        <v>307973</v>
+        <v>307974</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d 260 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
+          <t>Салфетки ажурные d 280 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -11408,35 +11408,35 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K189" t="n">
         <v>1</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>12.54761899923495</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
+        <v>24784.55895204884</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Марго Диля']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Чл Болатбек Акбар менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B190" t="n">
-        <v>307974</v>
+        <v>307975</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d 280 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
+          <t>Салфетки ажурные d 300 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -11470,31 +11470,31 @@
         </is>
       </c>
       <c r="K190" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L190" t="n">
-        <v>12.54761899923495</v>
+        <v>9.425065849566941</v>
       </c>
       <c r="M190" t="n">
-        <v>24784.55895204884</v>
+        <v>19903.47705848148</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Верить автозаказу если сохраняются заказы клиента Чл Болатбек Акбар менеджера Абзалова Ольга Валерьевна</t>
+          <t>Верить автозаказу</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B191" t="n">
-        <v>307975</v>
+        <v>342047</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Салфетки ажурные d 300 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
+          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке (ООО Фарт)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ГУСЛИЦА ООО</t>
+          <t>ФАРТ ООО</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -11514,45 +11514,45 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Салфетки сервировочные ажурные D от 20 см</t>
+          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K191" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L191" t="n">
-        <v>9.425065849566941</v>
+        <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>19903.47705848148</v>
+        <v>0</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Донс Мороженое', 'ЧЛ Барыс Оптовик Аруназ']}</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B192" t="n">
-        <v>342047</v>
+        <v>451457</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке (ООО Фарт)</t>
+          <t>Полотенца бумажные для диспенсеров 240 х 215 мм "Focus" Eco 1-сл., Z-сложен., бел, 250 лист/упак</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ФАРТ ООО</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -11572,45 +11572,45 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Полотенца бумажные</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
+          <t>Полотенца бумажные для диспенсеров Z-сложение 1-слойные из макулатуры</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Под заказ</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="K192" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>9.410714249426212</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>4179.392305312675</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Донс Мороженое', 'ЧЛ Барыс Оптовик Аруназ']}</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Ибраимова Рынок Оптовик бутик 45 менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B193" t="n">
-        <v>451457</v>
+        <v>505205</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров 240 х 215 мм "Focus" Eco 1-сл., Z-сложен., бел, 250 лист/упак</t>
+          <t>Сахар порционный 5 г, стик, 1000 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -11620,97 +11620,39 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Полотенца бумажные</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров Z-сложение 1-слойные из макулатуры</t>
+          <t>Сахар</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Под заказ</t>
         </is>
       </c>
       <c r="K193" t="n">
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>9.410714249426212</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>4179.392305312675</v>
+        <v>0</v>
       </c>
       <c r="N193" t="inlineStr">
-        <is>
-          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Ибраимова Рынок Оптовик бутик 45 менеджера Абзалова Ольга Валерьевна</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B194" t="n">
-        <v>505205</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Сахар порционный 5 г, стик, 1000 шт/упак (ООО ВЗЛП)</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>ВЗЛП ООО</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Барные аксессуары</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>Сахар</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Под заказ</t>
-        </is>
-      </c>
-      <c r="K194" t="n">
-        <v>1</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0</v>
-      </c>
-      <c r="N194" t="inlineStr">
         <is>
           <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"']}</t>
         </is>
